--- a/GeneratePermission/Permissions.xlsx
+++ b/GeneratePermission/Permissions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-bobzh\Documents\GeneratePermission\GeneratePermission\GeneratePermission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Teuton\GeneratePermission\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="83">
   <si>
     <t>Operation</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>ErrorMessage_CreateOrUpdate</t>
+  </si>
+  <si>
+    <t>ManageCompositeActivity</t>
   </si>
 </sst>
 </file>
@@ -1603,14 +1606,49 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -1620,49 +1658,14 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1671,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,6 +2041,23 @@
         <v>62</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>131072</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
